--- a/medicine/Enfance/Silvana_Gandolfi/Silvana_Gandolfi.xlsx
+++ b/medicine/Enfance/Silvana_Gandolfi/Silvana_Gandolfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silvana Gandolfi (née à Rome en 1940) est une écrivaine italienne, auteur de romans d'aventures et de livres pour la jeunesse.
 Plusieurs de ses romans ont été traduits et publiés en français.
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Silvana Gandolfi est née à Rome en 1940, où elle a toujours vécu. Elle a commencé comme auteur pour la radio et la télévision, puis en 1992 elle se dirige vers la littérature pour la jeunesse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silvana Gandolfi est née à Rome en 1940, où elle a toujours vécu. Elle a commencé comme auteur pour la radio et la télévision, puis en 1992 elle se dirige vers la littérature pour la jeunesse.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Un Chat dans l'œil, École des Loisirs
@@ -581,9 +597,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(international) « Honour List » 2004[2] de l' IBBY pour Aldabra, la tortue qui aimait Shakespeare</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(international) « Honour List » 2004 de l' IBBY pour Aldabra, la tortue qui aimait Shakespeare</t>
         </is>
       </c>
     </row>
